--- a/settings/file_config.xlsx
+++ b/settings/file_config.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="usuarios" sheetId="2" r:id="rId1"/>
-    <sheet name="configuracion" sheetId="5" r:id="rId2"/>
+    <sheet name="configuracion" sheetId="5" r:id="rId1"/>
+    <sheet name="usuarios" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">usuarios!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">usuarios!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,6 +23,88 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Is the subject of this report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The HTML file template to send the report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+If an attached file is needed to send with the report</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
@@ -58,23 +140,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>usuarios</t>
-  </si>
-  <si>
-    <t>administradores</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
-    <t>Grupo</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -96,55 +169,59 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>Reporte estado interfaz BOSNI-SIMEM</t>
-  </si>
-  <si>
-    <t>BOSNI-SIMEM</t>
-  </si>
-  <si>
-    <t>reporte_bosni_simem.html</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Desktop\Interfaces\BOSNI\REPORTE_BOSNI_SIMEM.txt</t>
-  </si>
-  <si>
-    <t>bosni-simem@cenace.gob.ec</t>
-  </si>
-  <si>
-    <t>ems-simem@cenace.gob.ec</t>
-  </si>
-  <si>
-    <t>EMS-SIMEM</t>
-  </si>
-  <si>
-    <t>Reporte estado interfaz EMS-SIMEM</t>
-  </si>
-  <si>
-    <t>reporte_ems_simem.html</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Desktop\Interfaces\REPORTE_EMS_SIMEM.txt</t>
-  </si>
-  <si>
-    <t>hparedes@cenace.gob.ec; aacosta@cenace.gob.ec; rsanchez@cenace.org.ec</t>
+    <t>REPORT1</t>
+  </si>
+  <si>
+    <t>REPORT2</t>
+  </si>
+  <si>
+    <t>Status Report 1</t>
+  </si>
+  <si>
+    <t>Status Report 2</t>
+  </si>
+  <si>
+    <t>report1</t>
+  </si>
+  <si>
+    <t>report2</t>
+  </si>
+  <si>
+    <t>C:\file\to\send.txt</t>
+  </si>
+  <si>
+    <t>/usr/file/to/send.txt</t>
+  </si>
+  <si>
+    <t>test.user@account.com</t>
+  </si>
+  <si>
+    <t>no.reply@account.com</t>
+  </si>
+  <si>
+    <t>admin.1@account.com; admin2@account.com</t>
+  </si>
+  <si>
+    <t>user.1@account.com; user2@account.com</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>administrators</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,8 +260,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +291,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,21 +310,21 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,142 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C9"/>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2" display="rsanchez@cenace.org.ec"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4" display="rsanchez@cenace.org.ec"/>
-    <hyperlink ref="C4" r:id="rId5" display="rsanchez@cenace.org.ec"/>
-    <hyperlink ref="C6" r:id="rId6" display="rsanchez@cenace.org.ec"/>
-    <hyperlink ref="C7" r:id="rId7" display="rsanchez@cenace.org.ec"/>
-    <hyperlink ref="C8" r:id="rId8" display="rsanchez@cenace.org.ec"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,51 +617,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
@@ -700,5 +670,138 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C9"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2" display="admin.1@"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4" display="admin.1@"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6" display="admin.1@"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8" display="admin.1@"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/settings/file_config.xlsx
+++ b/settings/file_config.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="configuracion" sheetId="5" r:id="rId1"/>
-    <sheet name="usuarios" sheetId="2" r:id="rId2"/>
+    <sheet name="configurations" sheetId="5" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">usuarios!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">users!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>

--- a/settings/file_config.xlsx
+++ b/settings/file_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="5" r:id="rId1"/>
@@ -72,7 +72,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The HTML file template to send the report</t>
+The HTML file template to send the report. This templates are inside the template's folder
+</t>
         </r>
       </text>
     </comment>
@@ -181,12 +182,6 @@
     <t>Status Report 2</t>
   </si>
   <si>
-    <t>report1</t>
-  </si>
-  <si>
-    <t>report2</t>
-  </si>
-  <si>
     <t>C:\file\to\send.txt</t>
   </si>
   <si>
@@ -212,6 +207,12 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>report1.html</t>
+  </si>
+  <si>
+    <t>report2.html</t>
   </si>
 </sst>
 </file>
@@ -604,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,10 +642,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -658,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
@@ -678,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -694,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -705,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,10 +717,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +750,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,10 +761,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
